--- a/naming_conventions.xlsx
+++ b/naming_conventions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e4d3e54824fd230/Documents/GitHub/gr_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e4d3e54824fd230/Documents/GitHub/gr_miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC10481B191C69985BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96E88ED-0ACF-4802-B0D6-465DBEBD21F5}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_F25DC773A252ABDACC10481B191C69985BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1777C0C-BAAB-4463-BE3A-3E81A95A6DA1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{611FDBDD-00A8-4FF2-AFD2-267CCD7424D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{611FDBDD-00A8-4FF2-AFD2-267CCD7424D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="9" r:id="rId1"/>
@@ -2098,6 +2098,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2365,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C22AD30-DFA4-4C9E-BFB5-9210EE48CCA7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2389,12 +2393,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6FABF1-17F7-4B58-BAA4-A445E7E87548}">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" filterMode="1"/>
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2593,7 +2597,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4276,7 +4280,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4412,7 +4416,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4820,7 +4824,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4871,7 +4875,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -5569,7 +5573,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E186" xr:uid="{9D6FABF1-17F7-4B58-BAA4-A445E7E87548}"/>
+  <autoFilter ref="A1:E186" xr:uid="{9D6FABF1-17F7-4B58-BAA4-A445E7E87548}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="動詞"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
